--- a/todo-app-testplan.xlsx
+++ b/todo-app-testplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Navigate to https://vuejs.org/v2/examples/todomvc.html in your browser of choice</t>
-  </si>
-  <si>
-    <t>Test passes if UI is deplayed, no error code presented</t>
   </si>
   <si>
     <t>Access UI across multiple desktop browsers</t>
@@ -75,9 +72,6 @@
 Repeat for listed browsers</t>
   </si>
   <si>
-    <t>Test passes if UI is deplayed, no error code presented across all browsers</t>
-  </si>
-  <si>
     <t>Ensures no bad behavior double clicking when the list is empty</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Add an item to the list, desktop</t>
   </si>
   <si>
-    <t>Access UI across multiple mobil browsers</t>
-  </si>
-  <si>
     <t>Double click with no to do list, mobile</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>max number of entries +1</t>
   </si>
   <si>
-    <t>Disabilities access (ADA compliant?)</t>
-  </si>
-  <si>
     <t>update list item</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>max char string count +1</t>
   </si>
   <si>
-    <t>try executible code as an entry</t>
-  </si>
-  <si>
     <t>slow network</t>
   </si>
   <si>
@@ -145,13 +130,43 @@
     <t>load performance</t>
   </si>
   <si>
-    <t>multple users</t>
-  </si>
-  <si>
-    <t>muiltiple sessions</t>
-  </si>
-  <si>
     <t>cookie retention</t>
+  </si>
+  <si>
+    <t>min char length for item</t>
+  </si>
+  <si>
+    <t>UTF-8 chars</t>
+  </si>
+  <si>
+    <t>Unicode Chars</t>
+  </si>
+  <si>
+    <t>URL encoded string</t>
+  </si>
+  <si>
+    <t>Disabilities access (ADA compliant)</t>
+  </si>
+  <si>
+    <t>color blindness, hearing impaired, visually impaired</t>
+  </si>
+  <si>
+    <t>try executable code as an entry</t>
+  </si>
+  <si>
+    <t>multiple users</t>
+  </si>
+  <si>
+    <t>multiple sessions</t>
+  </si>
+  <si>
+    <t>Test passes if UI is displayed, no error code presented</t>
+  </si>
+  <si>
+    <t>Test passes if UI is displayed, no error code presented across all browsers</t>
+  </si>
+  <si>
+    <t>Access UI across multiple mobile browsers</t>
   </si>
 </sst>
 </file>
@@ -703,8 +718,8 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -771,16 +786,16 @@
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -790,16 +805,16 @@
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -809,7 +824,7 @@
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -822,7 +837,7 @@
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -835,7 +850,7 @@
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -848,7 +863,7 @@
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -861,7 +876,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -874,7 +889,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -887,7 +902,7 @@
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -900,9 +915,11 @@
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -913,7 +930,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -926,7 +943,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -939,7 +956,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -952,7 +969,7 @@
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -965,7 +982,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -978,7 +995,7 @@
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -991,7 +1008,7 @@
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1004,7 +1021,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1017,7 +1034,7 @@
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1030,7 +1047,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1043,7 +1060,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1056,7 +1073,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1069,7 +1086,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1079,9 +1096,11 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1092,7 +1111,9 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1103,7 +1124,9 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1114,7 +1137,9 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
